--- a/output/05.HC/clust_attribution_HC_essentials_only.xlsx
+++ b/output/05.HC/clust_attribution_HC_essentials_only.xlsx
@@ -35,43 +35,43 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mg</t>
   </si>
   <si>
-    <t xml:space="preserve">Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fe</t>
   </si>
   <si>
     <t xml:space="preserve">Zn</t>
   </si>
   <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sr</t>
   </si>
   <si>
-    <t xml:space="preserve">Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co</t>
   </si>
   <si>
     <t xml:space="preserve">Ag</t>
@@ -689,13 +689,13 @@
         <v>24590.008</v>
       </c>
       <c r="H2" t="n">
+        <v>14209.212</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10622.827</v>
+      </c>
+      <c r="J2" t="n">
         <v>2193.591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14209.212</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10622.827</v>
       </c>
       <c r="K2" t="n">
         <v>42.754</v>
@@ -704,13 +704,13 @@
         <v>44.321</v>
       </c>
       <c r="M2" t="n">
-        <v>212.09</v>
+        <v>5.668</v>
       </c>
       <c r="N2" t="n">
-        <v>5.668</v>
+        <v>3.815</v>
       </c>
       <c r="O2" t="n">
-        <v>3.815</v>
+        <v>2.658</v>
       </c>
       <c r="P2" t="n">
         <v>2.606</v>
@@ -719,13 +719,13 @@
         <v>1.27</v>
       </c>
       <c r="R2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S2" t="n">
+        <v>212.09</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.138</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.658</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.11</v>
       </c>
       <c r="U2" t="n">
         <v>0.01</v>
@@ -760,13 +760,13 @@
         <v>22953.983</v>
       </c>
       <c r="H3" t="n">
+        <v>9916.91</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11733.677</v>
+      </c>
+      <c r="J3" t="n">
         <v>1873.71</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9916.91</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11733.677</v>
       </c>
       <c r="K3" t="n">
         <v>63.993</v>
@@ -775,13 +775,13 @@
         <v>65.606</v>
       </c>
       <c r="M3" t="n">
-        <v>167.142</v>
+        <v>6.315</v>
       </c>
       <c r="N3" t="n">
-        <v>6.315</v>
+        <v>4.067</v>
       </c>
       <c r="O3" t="n">
-        <v>4.067</v>
+        <v>9.737</v>
       </c>
       <c r="P3" t="n">
         <v>2.657</v>
@@ -790,13 +790,13 @@
         <v>1.154</v>
       </c>
       <c r="R3" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="S3" t="n">
+        <v>167.142</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.881</v>
-      </c>
-      <c r="S3" t="n">
-        <v>9.737</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.115</v>
       </c>
       <c r="U3" t="n">
         <v>0.032</v>
@@ -831,13 +831,13 @@
         <v>10088.354</v>
       </c>
       <c r="H4" t="n">
+        <v>11766.619</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8986.529</v>
+      </c>
+      <c r="J4" t="n">
         <v>1894.355</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11766.619</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8986.529</v>
       </c>
       <c r="K4" t="n">
         <v>35.687</v>
@@ -846,13 +846,13 @@
         <v>48.101</v>
       </c>
       <c r="M4" t="n">
-        <v>59.686</v>
+        <v>5.818</v>
       </c>
       <c r="N4" t="n">
-        <v>5.818</v>
+        <v>1.695</v>
       </c>
       <c r="O4" t="n">
-        <v>1.695</v>
+        <v>3.911</v>
       </c>
       <c r="P4" t="n">
         <v>2.011</v>
@@ -861,13 +861,13 @@
         <v>0.645</v>
       </c>
       <c r="R4" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="S4" t="n">
+        <v>59.686</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.831</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.911</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.051</v>
       </c>
       <c r="U4" t="n">
         <v>0.075</v>
@@ -902,13 +902,13 @@
         <v>17084.727</v>
       </c>
       <c r="H5" t="n">
+        <v>21854.996</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11176.492</v>
+      </c>
+      <c r="J5" t="n">
         <v>2017.86</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21854.996</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11176.492</v>
       </c>
       <c r="K5" t="n">
         <v>39.579</v>
@@ -917,13 +917,13 @@
         <v>53.805</v>
       </c>
       <c r="M5" t="n">
-        <v>104.137</v>
+        <v>9.575</v>
       </c>
       <c r="N5" t="n">
-        <v>9.575</v>
+        <v>2.658</v>
       </c>
       <c r="O5" t="n">
-        <v>2.658</v>
+        <v>1.503</v>
       </c>
       <c r="P5" t="n">
         <v>1.857</v>
@@ -932,13 +932,13 @@
         <v>0.735</v>
       </c>
       <c r="R5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S5" t="n">
+        <v>104.137</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.374</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.503</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.06</v>
       </c>
       <c r="U5" t="n">
         <v>0.013</v>
@@ -973,13 +973,13 @@
         <v>19381.829</v>
       </c>
       <c r="H6" t="n">
+        <v>11214.122</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17128.08</v>
+      </c>
+      <c r="J6" t="n">
         <v>1810.978</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11214.122</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17128.08</v>
       </c>
       <c r="K6" t="n">
         <v>11.371</v>
@@ -988,13 +988,13 @@
         <v>75.207</v>
       </c>
       <c r="M6" t="n">
-        <v>74.461</v>
+        <v>3.903</v>
       </c>
       <c r="N6" t="n">
-        <v>3.903</v>
+        <v>0.81</v>
       </c>
       <c r="O6" t="n">
-        <v>0.81</v>
+        <v>9.477</v>
       </c>
       <c r="P6" t="n">
         <v>3.825</v>
@@ -1003,13 +1003,13 @@
         <v>0.806</v>
       </c>
       <c r="R6" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="S6" t="n">
+        <v>74.461</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.81</v>
-      </c>
-      <c r="S6" t="n">
-        <v>9.477</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.077</v>
       </c>
       <c r="U6" t="n">
         <v>0.019</v>
@@ -1044,13 +1044,13 @@
         <v>18847.69</v>
       </c>
       <c r="H7" t="n">
+        <v>12493.07</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13701.725</v>
+      </c>
+      <c r="J7" t="n">
         <v>1936.866</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12493.07</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13701.725</v>
       </c>
       <c r="K7" t="n">
         <v>23.5</v>
@@ -1059,13 +1059,13 @@
         <v>72.742</v>
       </c>
       <c r="M7" t="n">
-        <v>69.148</v>
+        <v>4.007</v>
       </c>
       <c r="N7" t="n">
-        <v>4.007</v>
+        <v>1.42</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>12.337</v>
       </c>
       <c r="P7" t="n">
         <v>3.476</v>
@@ -1074,13 +1074,13 @@
         <v>0.959</v>
       </c>
       <c r="R7" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="S7" t="n">
+        <v>69.148</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.247</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12.337</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.083</v>
       </c>
       <c r="U7" t="n">
         <v>0.009</v>
@@ -1115,13 +1115,13 @@
         <v>13390.931</v>
       </c>
       <c r="H8" t="n">
+        <v>7333.358</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9685.594</v>
+      </c>
+      <c r="J8" t="n">
         <v>1548.213</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7333.358</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9685.594</v>
       </c>
       <c r="K8" t="n">
         <v>54.01</v>
@@ -1130,13 +1130,13 @@
         <v>34.819</v>
       </c>
       <c r="M8" t="n">
-        <v>48.387</v>
+        <v>3.762</v>
       </c>
       <c r="N8" t="n">
-        <v>3.762</v>
+        <v>1.766</v>
       </c>
       <c r="O8" t="n">
-        <v>1.766</v>
+        <v>1.852</v>
       </c>
       <c r="P8" t="n">
         <v>2.558</v>
@@ -1145,13 +1145,13 @@
         <v>0.826</v>
       </c>
       <c r="R8" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="S8" t="n">
+        <v>48.387</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.21</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.07</v>
       </c>
       <c r="U8" t="n">
         <v>0.019</v>
@@ -1186,13 +1186,13 @@
         <v>17808.391</v>
       </c>
       <c r="H9" t="n">
+        <v>10848.427</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11098.878</v>
+      </c>
+      <c r="J9" t="n">
         <v>1853.315</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10848.427</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11098.878</v>
       </c>
       <c r="K9" t="n">
         <v>63.695</v>
@@ -1201,13 +1201,13 @@
         <v>68.352</v>
       </c>
       <c r="M9" t="n">
-        <v>101.497</v>
+        <v>5.277</v>
       </c>
       <c r="N9" t="n">
-        <v>5.277</v>
+        <v>2.511</v>
       </c>
       <c r="O9" t="n">
-        <v>2.511</v>
+        <v>7.961</v>
       </c>
       <c r="P9" t="n">
         <v>2.773</v>
@@ -1216,13 +1216,13 @@
         <v>1.016</v>
       </c>
       <c r="R9" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="S9" t="n">
+        <v>101.497</v>
+      </c>
+      <c r="T9" t="n">
         <v>0.402</v>
-      </c>
-      <c r="S9" t="n">
-        <v>7.961</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.107</v>
       </c>
       <c r="U9" t="n">
         <v>0.091</v>
@@ -1257,13 +1257,13 @@
         <v>9889.52</v>
       </c>
       <c r="H10" t="n">
+        <v>9725.92</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5958.289</v>
+      </c>
+      <c r="J10" t="n">
         <v>1353.772</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9725.92</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5958.289</v>
       </c>
       <c r="K10" t="n">
         <v>27.88</v>
@@ -1272,13 +1272,13 @@
         <v>30.601</v>
       </c>
       <c r="M10" t="n">
-        <v>72.559</v>
+        <v>3.627</v>
       </c>
       <c r="N10" t="n">
-        <v>3.627</v>
+        <v>1.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.98</v>
+        <v>2.996</v>
       </c>
       <c r="P10" t="n">
         <v>3.19</v>
@@ -1287,13 +1287,13 @@
         <v>0.618</v>
       </c>
       <c r="R10" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="S10" t="n">
+        <v>72.559</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.297</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.054</v>
       </c>
       <c r="U10" t="n">
         <v>0.024</v>
@@ -1328,13 +1328,13 @@
         <v>8422.985</v>
       </c>
       <c r="H11" t="n">
+        <v>7718.945</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7424.036</v>
+      </c>
+      <c r="J11" t="n">
         <v>1356.403</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7718.945</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7424.036</v>
       </c>
       <c r="K11" t="n">
         <v>27.083</v>
@@ -1343,13 +1343,13 @@
         <v>35.11</v>
       </c>
       <c r="M11" t="n">
-        <v>37.968</v>
+        <v>3.232</v>
       </c>
       <c r="N11" t="n">
-        <v>3.232</v>
+        <v>1.816</v>
       </c>
       <c r="O11" t="n">
-        <v>1.816</v>
+        <v>2.898</v>
       </c>
       <c r="P11" t="n">
         <v>1.617</v>
@@ -1358,13 +1358,13 @@
         <v>0.616</v>
       </c>
       <c r="R11" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="S11" t="n">
+        <v>37.968</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.284</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.898</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.053</v>
       </c>
       <c r="U11" t="n">
         <v>0.078</v>
@@ -1399,13 +1399,13 @@
         <v>18240.772</v>
       </c>
       <c r="H12" t="n">
+        <v>9157.875</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15143.346</v>
+      </c>
+      <c r="J12" t="n">
         <v>2000.818</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9157.875</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15143.346</v>
       </c>
       <c r="K12" t="n">
         <v>60.407</v>
@@ -1414,13 +1414,13 @@
         <v>53.593</v>
       </c>
       <c r="M12" t="n">
-        <v>114.289</v>
+        <v>6.46</v>
       </c>
       <c r="N12" t="n">
-        <v>6.46</v>
+        <v>1.375</v>
       </c>
       <c r="O12" t="n">
-        <v>1.375</v>
+        <v>4.858</v>
       </c>
       <c r="P12" t="n">
         <v>2.661</v>
@@ -1429,13 +1429,13 @@
         <v>1.192</v>
       </c>
       <c r="R12" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="S12" t="n">
+        <v>114.289</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.248</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.858</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.113</v>
       </c>
       <c r="U12" t="n">
         <v>0.268</v>
@@ -1470,13 +1470,13 @@
         <v>10885.852</v>
       </c>
       <c r="H13" t="n">
+        <v>8089.537</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5801.835</v>
+      </c>
+      <c r="J13" t="n">
         <v>1623.931</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8089.537</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5801.835</v>
       </c>
       <c r="K13" t="n">
         <v>27.075</v>
@@ -1485,13 +1485,13 @@
         <v>29.626</v>
       </c>
       <c r="M13" t="n">
-        <v>47.678</v>
+        <v>3.337</v>
       </c>
       <c r="N13" t="n">
-        <v>3.337</v>
+        <v>1.401</v>
       </c>
       <c r="O13" t="n">
-        <v>1.401</v>
+        <v>1.492</v>
       </c>
       <c r="P13" t="n">
         <v>2.005</v>
@@ -1500,13 +1500,13 @@
         <v>1.327</v>
       </c>
       <c r="R13" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="S13" t="n">
+        <v>47.678</v>
+      </c>
+      <c r="T13" t="n">
         <v>0.419</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.492</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.082</v>
       </c>
       <c r="U13" t="n">
         <v>0.015</v>
@@ -1541,13 +1541,13 @@
         <v>13931.892</v>
       </c>
       <c r="H14" t="n">
+        <v>7536.62</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7615.997</v>
+      </c>
+      <c r="J14" t="n">
         <v>1793.007</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7536.62</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7615.997</v>
       </c>
       <c r="K14" t="n">
         <v>40.217</v>
@@ -1556,13 +1556,13 @@
         <v>39.718</v>
       </c>
       <c r="M14" t="n">
-        <v>58.045</v>
+        <v>3.697</v>
       </c>
       <c r="N14" t="n">
-        <v>3.697</v>
+        <v>2.205</v>
       </c>
       <c r="O14" t="n">
-        <v>2.205</v>
+        <v>2.532</v>
       </c>
       <c r="P14" t="n">
         <v>4.034</v>
@@ -1571,13 +1571,13 @@
         <v>1.319</v>
       </c>
       <c r="R14" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="S14" t="n">
+        <v>58.045</v>
+      </c>
+      <c r="T14" t="n">
         <v>0.533</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.532</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.107</v>
       </c>
       <c r="U14" t="n">
         <v>0.02</v>
@@ -1612,13 +1612,13 @@
         <v>15729.833</v>
       </c>
       <c r="H15" t="n">
+        <v>7013.791</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9915.054</v>
+      </c>
+      <c r="J15" t="n">
         <v>1728.701</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7013.791</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9915.054</v>
       </c>
       <c r="K15" t="n">
         <v>27.912</v>
@@ -1627,13 +1627,13 @@
         <v>40.291</v>
       </c>
       <c r="M15" t="n">
-        <v>54.44</v>
+        <v>4.795</v>
       </c>
       <c r="N15" t="n">
-        <v>4.795</v>
+        <v>2.219</v>
       </c>
       <c r="O15" t="n">
-        <v>2.219</v>
+        <v>3.005</v>
       </c>
       <c r="P15" t="n">
         <v>2.783</v>
@@ -1642,13 +1642,13 @@
         <v>1.157</v>
       </c>
       <c r="R15" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="S15" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="T15" t="n">
         <v>0.901</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.088</v>
       </c>
       <c r="U15" t="n">
         <v>0.023</v>
@@ -1683,13 +1683,13 @@
         <v>12715.615</v>
       </c>
       <c r="H16" t="n">
+        <v>4160.978</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8368.823</v>
+      </c>
+      <c r="J16" t="n">
         <v>1202.581</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4160.978</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8368.823</v>
       </c>
       <c r="K16" t="n">
         <v>24.002</v>
@@ -1698,13 +1698,13 @@
         <v>21.228</v>
       </c>
       <c r="M16" t="n">
-        <v>58.714</v>
+        <v>2.54</v>
       </c>
       <c r="N16" t="n">
-        <v>2.54</v>
+        <v>1.708</v>
       </c>
       <c r="O16" t="n">
-        <v>1.708</v>
+        <v>3.573</v>
       </c>
       <c r="P16" t="n">
         <v>2.392</v>
@@ -1713,13 +1713,13 @@
         <v>1.085</v>
       </c>
       <c r="R16" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="S16" t="n">
+        <v>58.714</v>
+      </c>
+      <c r="T16" t="n">
         <v>0.504</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.573</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.083</v>
       </c>
       <c r="U16" t="n">
         <v>0.01</v>
@@ -1754,13 +1754,13 @@
         <v>10115.738</v>
       </c>
       <c r="H17" t="n">
+        <v>5093.558</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6646.825</v>
+      </c>
+      <c r="J17" t="n">
         <v>1220.061</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5093.558</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6646.825</v>
       </c>
       <c r="K17" t="n">
         <v>17.971</v>
@@ -1769,13 +1769,13 @@
         <v>31.171</v>
       </c>
       <c r="M17" t="n">
-        <v>63.215</v>
+        <v>2.705</v>
       </c>
       <c r="N17" t="n">
-        <v>2.705</v>
+        <v>1.343</v>
       </c>
       <c r="O17" t="n">
-        <v>1.343</v>
+        <v>1.996</v>
       </c>
       <c r="P17" t="n">
         <v>1.951</v>
@@ -1784,13 +1784,13 @@
         <v>0.961</v>
       </c>
       <c r="R17" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="S17" t="n">
+        <v>63.215</v>
+      </c>
+      <c r="T17" t="n">
         <v>0.806</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.996</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.07</v>
       </c>
       <c r="U17" t="n">
         <v>0.007</v>
@@ -1825,13 +1825,13 @@
         <v>14590.264</v>
       </c>
       <c r="H18" t="n">
+        <v>8142.482</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8025.436</v>
+      </c>
+      <c r="J18" t="n">
         <v>1994.838</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8142.482</v>
-      </c>
-      <c r="J18" t="n">
-        <v>8025.436</v>
       </c>
       <c r="K18" t="n">
         <v>30.801</v>
@@ -1840,13 +1840,13 @@
         <v>46.487</v>
       </c>
       <c r="M18" t="n">
-        <v>75.911</v>
+        <v>5.307</v>
       </c>
       <c r="N18" t="n">
-        <v>5.307</v>
+        <v>2.646</v>
       </c>
       <c r="O18" t="n">
-        <v>2.646</v>
+        <v>2.73</v>
       </c>
       <c r="P18" t="n">
         <v>3.65</v>
@@ -1855,13 +1855,13 @@
         <v>1.421</v>
       </c>
       <c r="R18" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="S18" t="n">
+        <v>75.911</v>
+      </c>
+      <c r="T18" t="n">
         <v>0.648</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.096</v>
       </c>
       <c r="U18" t="n">
         <v>0.096</v>
@@ -1887,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
         <v>13620.204</v>
@@ -1896,13 +1896,13 @@
         <v>11243.435</v>
       </c>
       <c r="H19" t="n">
+        <v>6242.33</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8064.781</v>
+      </c>
+      <c r="J19" t="n">
         <v>1486.039</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6242.33</v>
-      </c>
-      <c r="J19" t="n">
-        <v>8064.781</v>
       </c>
       <c r="K19" t="n">
         <v>24.871</v>
@@ -1911,13 +1911,13 @@
         <v>24.246</v>
       </c>
       <c r="M19" t="n">
-        <v>48.425</v>
+        <v>4.427</v>
       </c>
       <c r="N19" t="n">
-        <v>4.427</v>
+        <v>1.369</v>
       </c>
       <c r="O19" t="n">
-        <v>1.369</v>
+        <v>3.179</v>
       </c>
       <c r="P19" t="n">
         <v>2.943</v>
@@ -1926,13 +1926,13 @@
         <v>1.113</v>
       </c>
       <c r="R19" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="S19" t="n">
+        <v>48.425</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.448</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.179</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.078</v>
       </c>
       <c r="U19" t="n">
         <v>0.03</v>
@@ -1967,13 +1967,13 @@
         <v>12972.114</v>
       </c>
       <c r="H20" t="n">
+        <v>5454.643</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8404.886</v>
+      </c>
+      <c r="J20" t="n">
         <v>1486.204</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5454.643</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8404.886</v>
       </c>
       <c r="K20" t="n">
         <v>24.322</v>
@@ -1982,13 +1982,13 @@
         <v>27.529</v>
       </c>
       <c r="M20" t="n">
-        <v>57.102</v>
+        <v>3.736</v>
       </c>
       <c r="N20" t="n">
-        <v>3.736</v>
+        <v>1.554</v>
       </c>
       <c r="O20" t="n">
-        <v>1.554</v>
+        <v>2.399</v>
       </c>
       <c r="P20" t="n">
         <v>2.849</v>
@@ -1997,13 +1997,13 @@
         <v>1.087</v>
       </c>
       <c r="R20" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="S20" t="n">
+        <v>57.102</v>
+      </c>
+      <c r="T20" t="n">
         <v>0.577</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.399</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.089</v>
       </c>
       <c r="U20" t="n">
         <v>0.026</v>
@@ -2038,13 +2038,13 @@
         <v>11786.557</v>
       </c>
       <c r="H21" t="n">
+        <v>9648.586</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6833.169</v>
+      </c>
+      <c r="J21" t="n">
         <v>1847.18</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9648.586</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6833.169</v>
       </c>
       <c r="K21" t="n">
         <v>63.679</v>
@@ -2053,13 +2053,13 @@
         <v>45.573</v>
       </c>
       <c r="M21" t="n">
-        <v>45.16</v>
+        <v>5.734</v>
       </c>
       <c r="N21" t="n">
-        <v>5.734</v>
+        <v>2.685</v>
       </c>
       <c r="O21" t="n">
-        <v>2.685</v>
+        <v>4.663</v>
       </c>
       <c r="P21" t="n">
         <v>3.096</v>
@@ -2068,13 +2068,13 @@
         <v>0.868</v>
       </c>
       <c r="R21" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="S21" t="n">
+        <v>45.16</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.044</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.663</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.069</v>
       </c>
       <c r="U21" t="n">
         <v>0.09</v>
@@ -2109,13 +2109,13 @@
         <v>21763.641</v>
       </c>
       <c r="H22" t="n">
+        <v>15310.941</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8885.522</v>
+      </c>
+      <c r="J22" t="n">
         <v>3214.45</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15310.941</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8885.522</v>
       </c>
       <c r="K22" t="n">
         <v>84.22</v>
@@ -2124,13 +2124,13 @@
         <v>51.657</v>
       </c>
       <c r="M22" t="n">
-        <v>94.197</v>
+        <v>6.063</v>
       </c>
       <c r="N22" t="n">
-        <v>6.063</v>
+        <v>3.236</v>
       </c>
       <c r="O22" t="n">
-        <v>3.236</v>
+        <v>2.107</v>
       </c>
       <c r="P22" t="n">
         <v>3.39</v>
@@ -2139,13 +2139,13 @@
         <v>1.985</v>
       </c>
       <c r="R22" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="S22" t="n">
+        <v>94.197</v>
+      </c>
+      <c r="T22" t="n">
         <v>0.159</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.107</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.114</v>
       </c>
       <c r="U22" t="n">
         <v>0.058</v>
@@ -2180,13 +2180,13 @@
         <v>17957.469</v>
       </c>
       <c r="H23" t="n">
+        <v>13352.952</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6284.472</v>
+      </c>
+      <c r="J23" t="n">
         <v>2879.118</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13352.952</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6284.472</v>
       </c>
       <c r="K23" t="n">
         <v>98.959</v>
@@ -2195,13 +2195,13 @@
         <v>57.53</v>
       </c>
       <c r="M23" t="n">
-        <v>90.603</v>
+        <v>6.29</v>
       </c>
       <c r="N23" t="n">
-        <v>6.29</v>
+        <v>3.612</v>
       </c>
       <c r="O23" t="n">
-        <v>3.612</v>
+        <v>2.299</v>
       </c>
       <c r="P23" t="n">
         <v>2.79</v>
@@ -2210,13 +2210,13 @@
         <v>1.68</v>
       </c>
       <c r="R23" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="S23" t="n">
+        <v>90.603</v>
+      </c>
+      <c r="T23" t="n">
         <v>0.24</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.299</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.118</v>
       </c>
       <c r="U23" t="n">
         <v>0.104</v>
@@ -2251,13 +2251,13 @@
         <v>17572.558</v>
       </c>
       <c r="H24" t="n">
+        <v>12193.775</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8524.285</v>
+      </c>
+      <c r="J24" t="n">
         <v>2483.517</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12193.775</v>
-      </c>
-      <c r="J24" t="n">
-        <v>8524.285</v>
       </c>
       <c r="K24" t="n">
         <v>70.192</v>
@@ -2266,13 +2266,13 @@
         <v>53.385</v>
       </c>
       <c r="M24" t="n">
-        <v>67.774</v>
+        <v>6.349</v>
       </c>
       <c r="N24" t="n">
-        <v>6.349</v>
+        <v>3.033</v>
       </c>
       <c r="O24" t="n">
-        <v>3.033</v>
+        <v>2.169</v>
       </c>
       <c r="P24" t="n">
         <v>2.619</v>
@@ -2281,13 +2281,13 @@
         <v>1.315</v>
       </c>
       <c r="R24" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="S24" t="n">
+        <v>67.774</v>
+      </c>
+      <c r="T24" t="n">
         <v>0.615</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.169</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.098</v>
       </c>
       <c r="U24" t="n">
         <v>0.051</v>
@@ -2322,13 +2322,13 @@
         <v>19492.539</v>
       </c>
       <c r="H25" t="n">
+        <v>12140.975</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7990.804</v>
+      </c>
+      <c r="J25" t="n">
         <v>2706.884</v>
-      </c>
-      <c r="I25" t="n">
-        <v>12140.975</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7990.804</v>
       </c>
       <c r="K25" t="n">
         <v>73.908</v>
@@ -2337,13 +2337,13 @@
         <v>71.097</v>
       </c>
       <c r="M25" t="n">
-        <v>87.877</v>
+        <v>8.22</v>
       </c>
       <c r="N25" t="n">
-        <v>8.22</v>
+        <v>3.551</v>
       </c>
       <c r="O25" t="n">
-        <v>3.551</v>
+        <v>2.093</v>
       </c>
       <c r="P25" t="n">
         <v>3.341</v>
@@ -2352,13 +2352,13 @@
         <v>1.854</v>
       </c>
       <c r="R25" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="S25" t="n">
+        <v>87.877</v>
+      </c>
+      <c r="T25" t="n">
         <v>0.399</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.125</v>
       </c>
       <c r="U25" t="n">
         <v>0.062</v>
@@ -2393,13 +2393,13 @@
         <v>13494.625</v>
       </c>
       <c r="H26" t="n">
+        <v>8142.804</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12402.393</v>
+      </c>
+      <c r="J26" t="n">
         <v>1686.099</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8142.804</v>
-      </c>
-      <c r="J26" t="n">
-        <v>12402.393</v>
       </c>
       <c r="K26" t="n">
         <v>38.182</v>
@@ -2408,13 +2408,13 @@
         <v>72.87</v>
       </c>
       <c r="M26" t="n">
-        <v>54.883</v>
+        <v>6.487</v>
       </c>
       <c r="N26" t="n">
-        <v>6.487</v>
+        <v>2.589</v>
       </c>
       <c r="O26" t="n">
-        <v>2.589</v>
+        <v>3.203</v>
       </c>
       <c r="P26" t="n">
         <v>2.93</v>
@@ -2423,13 +2423,13 @@
         <v>0.605</v>
       </c>
       <c r="R26" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="S26" t="n">
+        <v>54.883</v>
+      </c>
+      <c r="T26" t="n">
         <v>0.429</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.203</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.059</v>
       </c>
       <c r="U26" t="n">
         <v>0.059</v>
@@ -2464,13 +2464,13 @@
         <v>20935.123</v>
       </c>
       <c r="H27" t="n">
+        <v>8301.534</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16603.045</v>
+      </c>
+      <c r="J27" t="n">
         <v>1645.387</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8301.534</v>
-      </c>
-      <c r="J27" t="n">
-        <v>16603.045</v>
       </c>
       <c r="K27" t="n">
         <v>32.647</v>
@@ -2479,13 +2479,13 @@
         <v>52.976</v>
       </c>
       <c r="M27" t="n">
-        <v>74.339</v>
+        <v>3.992</v>
       </c>
       <c r="N27" t="n">
-        <v>3.992</v>
+        <v>2.417</v>
       </c>
       <c r="O27" t="n">
-        <v>2.417</v>
+        <v>7.548</v>
       </c>
       <c r="P27" t="n">
         <v>3.568</v>
@@ -2494,13 +2494,13 @@
         <v>1.085</v>
       </c>
       <c r="R27" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="S27" t="n">
+        <v>74.339</v>
+      </c>
+      <c r="T27" t="n">
         <v>0.505</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7.548</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.085</v>
       </c>
       <c r="U27" t="n">
         <v>0.005</v>
@@ -2535,13 +2535,13 @@
         <v>23220.929</v>
       </c>
       <c r="H28" t="n">
+        <v>9062.912</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12993.109</v>
+      </c>
+      <c r="J28" t="n">
         <v>1613.214</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9062.912</v>
-      </c>
-      <c r="J28" t="n">
-        <v>12993.109</v>
       </c>
       <c r="K28" t="n">
         <v>43.011</v>
@@ -2550,13 +2550,13 @@
         <v>72.154</v>
       </c>
       <c r="M28" t="n">
-        <v>131.406</v>
+        <v>3.467</v>
       </c>
       <c r="N28" t="n">
-        <v>3.467</v>
+        <v>11.121</v>
       </c>
       <c r="O28" t="n">
-        <v>11.121</v>
+        <v>17.514</v>
       </c>
       <c r="P28" t="n">
         <v>3.922</v>
@@ -2565,13 +2565,13 @@
         <v>1.235</v>
       </c>
       <c r="R28" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="S28" t="n">
+        <v>131.406</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.041</v>
-      </c>
-      <c r="S28" t="n">
-        <v>17.514</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.108</v>
       </c>
       <c r="U28" t="n">
         <v>0.014</v>
@@ -2606,13 +2606,13 @@
         <v>18473.701</v>
       </c>
       <c r="H29" t="n">
+        <v>7898.35</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12715.528</v>
+      </c>
+      <c r="J29" t="n">
         <v>1617.615</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7898.35</v>
-      </c>
-      <c r="J29" t="n">
-        <v>12715.528</v>
       </c>
       <c r="K29" t="n">
         <v>32.579</v>
@@ -2621,13 +2621,13 @@
         <v>48.554</v>
       </c>
       <c r="M29" t="n">
-        <v>89.839</v>
+        <v>3.285</v>
       </c>
       <c r="N29" t="n">
-        <v>3.285</v>
+        <v>2.184</v>
       </c>
       <c r="O29" t="n">
-        <v>2.184</v>
+        <v>10.648</v>
       </c>
       <c r="P29" t="n">
         <v>2.306</v>
@@ -2636,13 +2636,13 @@
         <v>1.178</v>
       </c>
       <c r="R29" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="S29" t="n">
+        <v>89.839</v>
+      </c>
+      <c r="T29" t="n">
         <v>0.647</v>
-      </c>
-      <c r="S29" t="n">
-        <v>10.648</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.087</v>
       </c>
       <c r="U29" t="n">
         <v>0.02</v>
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
         <v>35206.918</v>
@@ -2677,13 +2677,13 @@
         <v>24524.189</v>
       </c>
       <c r="H30" t="n">
+        <v>10089.713</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13460.206</v>
+      </c>
+      <c r="J30" t="n">
         <v>2262.964</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10089.713</v>
-      </c>
-      <c r="J30" t="n">
-        <v>13460.206</v>
       </c>
       <c r="K30" t="n">
         <v>44.861</v>
@@ -2692,13 +2692,13 @@
         <v>75.304</v>
       </c>
       <c r="M30" t="n">
-        <v>133.754</v>
+        <v>7.293</v>
       </c>
       <c r="N30" t="n">
-        <v>7.293</v>
+        <v>4.25</v>
       </c>
       <c r="O30" t="n">
-        <v>4.25</v>
+        <v>6.598</v>
       </c>
       <c r="P30" t="n">
         <v>3.333</v>
@@ -2707,13 +2707,13 @@
         <v>1.511</v>
       </c>
       <c r="R30" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="S30" t="n">
+        <v>133.754</v>
+      </c>
+      <c r="T30" t="n">
         <v>0.901</v>
-      </c>
-      <c r="S30" t="n">
-        <v>6.598</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.127</v>
       </c>
       <c r="U30" t="n">
         <v>0.017</v>
@@ -2748,13 +2748,13 @@
         <v>17977.425</v>
       </c>
       <c r="H31" t="n">
+        <v>18583.814</v>
+      </c>
+      <c r="I31" t="n">
+        <v>13052.801</v>
+      </c>
+      <c r="J31" t="n">
         <v>3261.785</v>
-      </c>
-      <c r="I31" t="n">
-        <v>18583.814</v>
-      </c>
-      <c r="J31" t="n">
-        <v>13052.801</v>
       </c>
       <c r="K31" t="n">
         <v>204.743</v>
@@ -2763,13 +2763,13 @@
         <v>67.287</v>
       </c>
       <c r="M31" t="n">
-        <v>68.873</v>
+        <v>10.495</v>
       </c>
       <c r="N31" t="n">
-        <v>10.495</v>
+        <v>3.625</v>
       </c>
       <c r="O31" t="n">
-        <v>3.625</v>
+        <v>1.273</v>
       </c>
       <c r="P31" t="n">
         <v>3.712</v>
@@ -2778,13 +2778,13 @@
         <v>0.821</v>
       </c>
       <c r="R31" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="S31" t="n">
+        <v>68.873</v>
+      </c>
+      <c r="T31" t="n">
         <v>0.202</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.273</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.084</v>
       </c>
       <c r="U31" t="n">
         <v>0.02</v>
@@ -2819,13 +2819,13 @@
         <v>18625.43</v>
       </c>
       <c r="H32" t="n">
+        <v>21795.556</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9880.6</v>
+      </c>
+      <c r="J32" t="n">
         <v>4185.158</v>
-      </c>
-      <c r="I32" t="n">
-        <v>21795.556</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9880.6</v>
       </c>
       <c r="K32" t="n">
         <v>174.806</v>
@@ -2834,13 +2834,13 @@
         <v>107.731</v>
       </c>
       <c r="M32" t="n">
-        <v>95.628</v>
+        <v>12.922</v>
       </c>
       <c r="N32" t="n">
-        <v>12.922</v>
+        <v>5.881</v>
       </c>
       <c r="O32" t="n">
-        <v>5.881</v>
+        <v>0.803</v>
       </c>
       <c r="P32" t="n">
         <v>2.012</v>
@@ -2849,13 +2849,13 @@
         <v>3.951</v>
       </c>
       <c r="R32" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="S32" t="n">
+        <v>95.628</v>
+      </c>
+      <c r="T32" t="n">
         <v>0.231</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.216</v>
       </c>
       <c r="U32" t="n">
         <v>0.036</v>
@@ -2890,13 +2890,13 @@
         <v>8641.952</v>
       </c>
       <c r="H33" t="n">
+        <v>20068.843</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7072.691</v>
+      </c>
+      <c r="J33" t="n">
         <v>2726.026</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20068.843</v>
-      </c>
-      <c r="J33" t="n">
-        <v>7072.691</v>
       </c>
       <c r="K33" t="n">
         <v>39.245</v>
@@ -2905,13 +2905,13 @@
         <v>42.918</v>
       </c>
       <c r="M33" t="n">
-        <v>47.771</v>
+        <v>5.777</v>
       </c>
       <c r="N33" t="n">
-        <v>5.777</v>
+        <v>2.076</v>
       </c>
       <c r="O33" t="n">
-        <v>2.076</v>
+        <v>1.484</v>
       </c>
       <c r="P33" t="n">
         <v>2.229</v>
@@ -2920,13 +2920,13 @@
         <v>0.371</v>
       </c>
       <c r="R33" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="S33" t="n">
+        <v>47.771</v>
+      </c>
+      <c r="T33" t="n">
         <v>0.8</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.484</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.038</v>
       </c>
       <c r="U33" t="n">
         <v>0.015</v>
@@ -2961,13 +2961,13 @@
         <v>14183.724</v>
       </c>
       <c r="H34" t="n">
+        <v>17781.669</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8671.316</v>
+      </c>
+      <c r="J34" t="n">
         <v>3003.033</v>
-      </c>
-      <c r="I34" t="n">
-        <v>17781.669</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8671.316</v>
       </c>
       <c r="K34" t="n">
         <v>128.852</v>
@@ -2976,13 +2976,13 @@
         <v>59.95</v>
       </c>
       <c r="M34" t="n">
-        <v>74.802</v>
+        <v>3.883</v>
       </c>
       <c r="N34" t="n">
-        <v>3.883</v>
+        <v>3.124</v>
       </c>
       <c r="O34" t="n">
-        <v>3.124</v>
+        <v>1.735</v>
       </c>
       <c r="P34" t="n">
         <v>1.487</v>
@@ -2991,13 +2991,13 @@
         <v>1.033</v>
       </c>
       <c r="R34" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="S34" t="n">
+        <v>74.802</v>
+      </c>
+      <c r="T34" t="n">
         <v>0.446</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.735</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.084</v>
       </c>
       <c r="U34" t="n">
         <v>0.018</v>
@@ -3032,13 +3032,13 @@
         <v>14504.933</v>
       </c>
       <c r="H35" t="n">
+        <v>22335.187</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7880.753</v>
+      </c>
+      <c r="J35" t="n">
         <v>2384.272</v>
-      </c>
-      <c r="I35" t="n">
-        <v>22335.187</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7880.753</v>
       </c>
       <c r="K35" t="n">
         <v>22.068</v>
@@ -3047,13 +3047,13 @@
         <v>90.688</v>
       </c>
       <c r="M35" t="n">
-        <v>94.121</v>
+        <v>11.257</v>
       </c>
       <c r="N35" t="n">
-        <v>11.257</v>
+        <v>1.005</v>
       </c>
       <c r="O35" t="n">
-        <v>1.005</v>
+        <v>4.168</v>
       </c>
       <c r="P35" t="n">
         <v>2.249</v>
@@ -3062,13 +3062,13 @@
         <v>0.749</v>
       </c>
       <c r="R35" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="S35" t="n">
+        <v>94.121</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.711</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4.168</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.065</v>
       </c>
       <c r="U35" t="n">
         <v>0.242</v>

--- a/output/05.HC/clust_attribution_HC_essentials_only.xlsx
+++ b/output/05.HC/clust_attribution_HC_essentials_only.xlsx
@@ -257,7 +257,7 @@
     <t xml:space="preserve">Idiacanthus atlanticus</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomias sp</t>
+    <t xml:space="preserve">Stomias spp.</t>
   </si>
   <si>
     <t xml:space="preserve">Zoarcidae</t>
@@ -2939,9 +2939,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34"/>
       <c r="B34" t="s">
         <v>79</v>
       </c>
